--- a/addmaterial.xlsx
+++ b/addmaterial.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.8898"/>
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.535"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT-303\Desktop\gitDirectory\KDTProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12090" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11340" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -16,75 +21,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+  <x:si>
+    <x:t>시마노 10단 디오레티아그라 스프라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또 세띠아 디펜더 (29x1.75)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앞바퀴A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뒷바퀴A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리드타임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최소공급수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1SEM002</x:t>
+  </x:si>
   <x:si>
     <x:t>MATB1SEM001</x:t>
   </x:si>
   <x:si>
-    <x:t>MATB1SEM002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벨로또 세띠아 디펜더 (29x1.75)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 10단 디오레티아그라 스프라켓</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최소공급수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리드타임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벨로또</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뒷바퀴A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앞바퀴A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노</x:t>
+    <x:t>입력테스트2번파일</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -128,26 +136,11 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -166,78 +159,21 @@
   <x:borders count="1">
     <x:border>
       <x:left>
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color indexed="64"/>
+        <x:color auto="1"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -255,13 +191,8 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="6">
-    <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
-    <x:cellStyle xfId="16" builtinId="3" iLevel="0"/>
-    <x:cellStyle xfId="17" builtinId="6" iLevel="0"/>
-    <x:cellStyle xfId="18" builtinId="4" iLevel="0"/>
-    <x:cellStyle xfId="19" builtinId="7" iLevel="0"/>
-    <x:cellStyle xfId="0" builtinId="0" iLevel="0"/>
+  <x:cellStyles count="1">
+    <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -269,6 +200,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -351,6 +283,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -385,6 +318,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -429,6 +363,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -472,6 +407,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -479,10 +415,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:left>
             <x:right>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff315f97"/>
@@ -491,10 +427,10 @@
               <x:color rgb="ff315f97"/>
             </x:bottom>
             <x:vertical>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:vertical>
             <x:horizontal>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -506,10 +442,10 @@
           </x:font>
           <x:border>
             <x:left>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:left>
             <x:right>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
               <x:color rgb="ff315f97"/>
@@ -518,10 +454,10 @@
               <x:color rgb="ff315f97"/>
             </x:bottom>
             <x:vertical>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:vertical>
             <x:horizontal>
-              <x:color indexed="64"/>
+              <x:color auto="1"/>
             </x:horizontal>
           </x:border>
         </x:dxf>
@@ -556,6 +492,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -576,6 +513,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -606,6 +544,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -659,7 +598,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" name="">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -913,13 +852,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:M3"/>
+  <x:dimension ref="A1:M4"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L8" activeCellId="0" sqref="L8:L8"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B6" activeCellId="0" sqref="B6:B6"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
   <x:cols>
     <x:col min="1" max="1" width="11.0234375" style="1" bestFit="1" customWidth="1"/>
     <x:col min="2" max="3" width="8.88671875" style="1"/>
@@ -932,40 +871,40 @@
   <x:sheetData>
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
+      <x:c r="E1" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G1" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D1" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E1" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I1" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="L1" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M1" s="3" t="s">
         <x:v>8</x:v>
@@ -973,22 +912,22 @@
     </x:row>
     <x:row r="2" spans="1:13">
       <x:c r="A2" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G2" s="2">
         <x:v>3</x:v>
@@ -1014,22 +953,22 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="2">
         <x:v>3</x:v>
@@ -1053,8 +992,49 @@
         <x:v>100</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G4" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H4" s="2">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I4" s="2">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="J4" s="2">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K4" s="2">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L4" s="2">
+        <x:v>17500</x:v>
+      </x:c>
+      <x:c r="M4" s="2">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1068,9 +1048,9 @@
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1084,9 +1064,9 @@
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/addmaterial.xlsx
+++ b/addmaterial.xlsx
@@ -16,82 +16,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <x:si>
-    <x:t>MATB1SEM001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1SEM002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벨로또 세띠아 디펜더 (29x1.75)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노 10단 디오레티아그라 스프라켓</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <x:si>
+    <x:t>MATB1MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바텀브라켓 셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최소공급수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리드타임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품</x:t>
   </x:si>
   <x:si>
     <x:t>자재명</x:t>
   </x:si>
   <x:si>
-    <x:t>자재유형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최소공급수량</x:t>
+    <x:t>시마노 SM-BB52 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노</x:t>
   </x:si>
   <x:si>
     <x:t>무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기자전거A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리드타임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벨로또</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뒷바퀴A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앞바퀴A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시마노</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="8">
+  <x:fonts count="9">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -128,28 +116,18 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="4">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -162,8 +140,14 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffffff"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="13">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -176,10 +160,178 @@
       </x:top>
       <x:bottom>
         <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="20">
+  <x:cellStyleXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -240,28 +392,92 @@
     <x:xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <x:alignment horizontal="general" vertical="center"/>
+  <x:cellXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="6">
+  <x:cellStyles count="7">
     <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
     <x:cellStyle xfId="16" builtinId="3" iLevel="0"/>
     <x:cellStyle xfId="17" builtinId="6" iLevel="0"/>
     <x:cellStyle xfId="18" builtinId="4" iLevel="0"/>
     <x:cellStyle xfId="19" builtinId="7" iLevel="0"/>
     <x:cellStyle xfId="0" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="표준 2" xfId="20"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -913,148 +1129,502 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:M3"/>
+  <x:dimension ref="A1:M1048576"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L8" activeCellId="0" sqref="L8:L8"/>
+      <x:selection activeCell="J25" activeCellId="0" sqref="J25:J25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.0234375" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="3" width="8.88671875" style="1"/>
-    <x:col min="4" max="4" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="14.0625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="10.57421875" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="8.88671875" style="1"/>
+    <x:col min="4" max="4" width="41.9609375" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="12.82421875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="6" max="6" width="8.88671875" style="1"/>
-    <x:col min="7" max="12" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="11.8125" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="11" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="12" width="8.88671875" style="17" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="11.66796875" style="5" customWidth="1"/>
+    <x:col min="14" max="20" width="8.88671875" style="10"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:13">
-      <x:c r="A1" s="3" t="s">
+    <x:row r="1" spans="1:13" ht="14.300000000000001">
+      <x:c r="A1" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B1" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C1" s="8" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D1" s="8" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
+      <x:c r="E1" s="8" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F1" s="8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G1" s="8" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H1" s="8" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I1" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J1" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K1" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="L1" s="19" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="M1" s="9" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:13">
+      <x:c r="A2" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B2" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="14" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="15" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E1" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F1" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G1" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I1" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J1" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="K1" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="L1" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="M1" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:13">
-      <x:c r="A2" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E2" s="2" t="s">
+      <x:c r="E2" s="11" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F2" s="2" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G2" s="2">
+      <x:c r="G2" s="20">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="H2" s="2">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="I2" s="2">
+      <x:c r="H2" s="20">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="J2" s="2">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="K2" s="2">
+      <x:c r="I2" s="20">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J2" s="20">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K2" s="20">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L2" s="2">
+      <x:c r="L2" s="21">
         <x:v>25000</x:v>
       </x:c>
-      <x:c r="M2" s="2">
+      <x:c r="M2" s="22">
         <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:13">
-      <x:c r="A3" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E3" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F3" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G3" s="2">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H3" s="2">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="I3" s="2">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J3" s="2">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K3" s="2">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L3" s="2">
-        <x:v>17500</x:v>
-      </x:c>
-      <x:c r="M3" s="2">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="A3" s="12"/>
+      <x:c r="B3" s="12"/>
+      <x:c r="C3" s="14"/>
+      <x:c r="D3" s="16"/>
+      <x:c r="E3" s="12"/>
+      <x:c r="G3" s="20"/>
+      <x:c r="H3" s="20"/>
+      <x:c r="I3" s="20"/>
+      <x:c r="J3" s="20"/>
+      <x:c r="K3" s="20"/>
+      <x:c r="L3" s="23"/>
+      <x:c r="M3" s="22"/>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="12"/>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="14"/>
+      <x:c r="D4" s="16"/>
+      <x:c r="E4" s="12"/>
+      <x:c r="G4" s="20"/>
+      <x:c r="H4" s="20"/>
+      <x:c r="I4" s="20"/>
+      <x:c r="J4" s="20"/>
+      <x:c r="K4" s="20"/>
+      <x:c r="L4" s="23"/>
+      <x:c r="M4" s="22"/>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="12"/>
+      <x:c r="B5" s="12"/>
+      <x:c r="C5" s="14"/>
+      <x:c r="D5" s="16"/>
+      <x:c r="E5" s="12"/>
+      <x:c r="G5" s="20"/>
+      <x:c r="H5" s="20"/>
+      <x:c r="I5" s="20"/>
+      <x:c r="J5" s="20"/>
+      <x:c r="K5" s="20"/>
+      <x:c r="L5" s="23"/>
+      <x:c r="M5" s="22"/>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="12"/>
+      <x:c r="B6" s="12"/>
+      <x:c r="C6" s="14"/>
+      <x:c r="D6" s="16"/>
+      <x:c r="E6" s="12"/>
+      <x:c r="G6" s="20"/>
+      <x:c r="H6" s="20"/>
+      <x:c r="I6" s="20"/>
+      <x:c r="J6" s="20"/>
+      <x:c r="K6" s="20"/>
+      <x:c r="L6" s="23"/>
+      <x:c r="M6" s="22"/>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="12"/>
+      <x:c r="B7" s="12"/>
+      <x:c r="C7" s="14"/>
+      <x:c r="D7" s="16"/>
+      <x:c r="E7" s="12"/>
+      <x:c r="G7" s="20"/>
+      <x:c r="H7" s="20"/>
+      <x:c r="I7" s="20"/>
+      <x:c r="J7" s="20"/>
+      <x:c r="K7" s="20"/>
+      <x:c r="L7" s="23"/>
+      <x:c r="M7" s="22"/>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="12"/>
+      <x:c r="B8" s="12"/>
+      <x:c r="C8" s="14"/>
+      <x:c r="D8" s="16"/>
+      <x:c r="E8" s="12"/>
+      <x:c r="G8" s="20"/>
+      <x:c r="H8" s="20"/>
+      <x:c r="I8" s="20"/>
+      <x:c r="J8" s="20"/>
+      <x:c r="K8" s="20"/>
+      <x:c r="L8" s="23"/>
+      <x:c r="M8" s="22"/>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="12"/>
+      <x:c r="B9" s="12"/>
+      <x:c r="C9" s="14"/>
+      <x:c r="D9" s="16"/>
+      <x:c r="E9" s="12"/>
+      <x:c r="G9" s="20"/>
+      <x:c r="H9" s="20"/>
+      <x:c r="I9" s="20"/>
+      <x:c r="J9" s="20"/>
+      <x:c r="K9" s="20"/>
+      <x:c r="L9" s="23"/>
+      <x:c r="M9" s="22"/>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="12"/>
+      <x:c r="B10" s="12"/>
+      <x:c r="C10" s="14"/>
+      <x:c r="D10" s="16"/>
+      <x:c r="E10" s="12"/>
+      <x:c r="G10" s="20"/>
+      <x:c r="H10" s="20"/>
+      <x:c r="I10" s="20"/>
+      <x:c r="J10" s="20"/>
+      <x:c r="K10" s="20"/>
+      <x:c r="L10" s="23"/>
+      <x:c r="M10" s="22"/>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="13"/>
+      <x:c r="B11" s="12"/>
+      <x:c r="C11" s="14"/>
+      <x:c r="D11" s="16"/>
+      <x:c r="E11" s="12"/>
+      <x:c r="G11" s="20"/>
+      <x:c r="H11" s="20"/>
+      <x:c r="I11" s="20"/>
+      <x:c r="J11" s="20"/>
+      <x:c r="K11" s="20"/>
+      <x:c r="L11" s="23"/>
+      <x:c r="M11" s="22"/>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="11"/>
+      <x:c r="B12" s="12"/>
+      <x:c r="C12" s="14"/>
+      <x:c r="D12" s="16"/>
+      <x:c r="E12" s="12"/>
+      <x:c r="G12" s="20"/>
+      <x:c r="H12" s="20"/>
+      <x:c r="I12" s="20"/>
+      <x:c r="J12" s="20"/>
+      <x:c r="K12" s="20"/>
+      <x:c r="L12" s="23"/>
+      <x:c r="M12" s="22"/>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="12"/>
+      <x:c r="B13" s="12"/>
+      <x:c r="C13" s="14"/>
+      <x:c r="D13" s="16"/>
+      <x:c r="E13" s="12"/>
+      <x:c r="G13" s="20"/>
+      <x:c r="H13" s="20"/>
+      <x:c r="I13" s="20"/>
+      <x:c r="J13" s="20"/>
+      <x:c r="K13" s="20"/>
+      <x:c r="L13" s="23"/>
+      <x:c r="M13" s="22"/>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="12"/>
+      <x:c r="B14" s="12"/>
+      <x:c r="C14" s="14"/>
+      <x:c r="D14" s="16"/>
+      <x:c r="E14" s="12"/>
+      <x:c r="G14" s="20"/>
+      <x:c r="H14" s="20"/>
+      <x:c r="I14" s="20"/>
+      <x:c r="J14" s="20"/>
+      <x:c r="K14" s="20"/>
+      <x:c r="L14" s="23"/>
+      <x:c r="M14" s="22"/>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="A15" s="12"/>
+      <x:c r="B15" s="12"/>
+      <x:c r="C15" s="14"/>
+      <x:c r="D15" s="16"/>
+      <x:c r="E15" s="12"/>
+      <x:c r="G15" s="20"/>
+      <x:c r="H15" s="20"/>
+      <x:c r="I15" s="20"/>
+      <x:c r="J15" s="20"/>
+      <x:c r="K15" s="20"/>
+      <x:c r="L15" s="23"/>
+      <x:c r="M15" s="22"/>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="A16" s="12"/>
+      <x:c r="B16" s="12"/>
+      <x:c r="C16" s="14"/>
+      <x:c r="D16" s="16"/>
+      <x:c r="E16" s="12"/>
+      <x:c r="G16" s="20"/>
+      <x:c r="H16" s="20"/>
+      <x:c r="I16" s="20"/>
+      <x:c r="J16" s="20"/>
+      <x:c r="K16" s="20"/>
+      <x:c r="L16" s="23"/>
+      <x:c r="M16" s="22"/>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="A17" s="12"/>
+      <x:c r="B17" s="12"/>
+      <x:c r="C17" s="14"/>
+      <x:c r="D17" s="16"/>
+      <x:c r="E17" s="12"/>
+      <x:c r="G17" s="20"/>
+      <x:c r="H17" s="20"/>
+      <x:c r="I17" s="20"/>
+      <x:c r="J17" s="20"/>
+      <x:c r="K17" s="20"/>
+      <x:c r="L17" s="23"/>
+      <x:c r="M17" s="22"/>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="A18" s="12"/>
+      <x:c r="B18" s="12"/>
+      <x:c r="C18" s="14"/>
+      <x:c r="D18" s="12"/>
+      <x:c r="E18" s="12"/>
+      <x:c r="G18" s="20"/>
+      <x:c r="H18" s="20"/>
+      <x:c r="I18" s="20"/>
+      <x:c r="J18" s="20"/>
+      <x:c r="K18" s="20"/>
+      <x:c r="L18" s="23"/>
+      <x:c r="M18" s="22"/>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="A19" s="12"/>
+      <x:c r="B19" s="12"/>
+      <x:c r="C19" s="14"/>
+      <x:c r="D19" s="12"/>
+      <x:c r="E19" s="12"/>
+      <x:c r="G19" s="20"/>
+      <x:c r="H19" s="20"/>
+      <x:c r="I19" s="20"/>
+      <x:c r="J19" s="20"/>
+      <x:c r="K19" s="20"/>
+      <x:c r="L19" s="23"/>
+      <x:c r="M19" s="22"/>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="A20" s="12"/>
+      <x:c r="B20" s="12"/>
+      <x:c r="C20" s="14"/>
+      <x:c r="D20" s="12"/>
+      <x:c r="E20" s="12"/>
+      <x:c r="G20" s="20"/>
+      <x:c r="H20" s="20"/>
+      <x:c r="I20" s="20"/>
+      <x:c r="J20" s="20"/>
+      <x:c r="K20" s="20"/>
+      <x:c r="L20" s="23"/>
+      <x:c r="M20" s="22"/>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="A21" s="13"/>
+      <x:c r="B21" s="12"/>
+      <x:c r="C21" s="14"/>
+      <x:c r="D21" s="12"/>
+      <x:c r="E21" s="12"/>
+      <x:c r="G21" s="20"/>
+      <x:c r="H21" s="20"/>
+      <x:c r="I21" s="20"/>
+      <x:c r="J21" s="20"/>
+      <x:c r="K21" s="20"/>
+      <x:c r="L21" s="23"/>
+      <x:c r="M21" s="22"/>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="A22" s="11"/>
+      <x:c r="B22" s="12"/>
+      <x:c r="C22" s="14"/>
+      <x:c r="D22" s="12"/>
+      <x:c r="E22" s="12"/>
+      <x:c r="G22" s="20"/>
+      <x:c r="H22" s="20"/>
+      <x:c r="I22" s="20"/>
+      <x:c r="J22" s="20"/>
+      <x:c r="K22" s="20"/>
+      <x:c r="L22" s="23"/>
+      <x:c r="M22" s="22"/>
+    </x:row>
+    <x:row r="23" spans="1:13">
+      <x:c r="A23" s="12"/>
+      <x:c r="B23" s="12"/>
+      <x:c r="C23" s="14"/>
+      <x:c r="D23" s="12"/>
+      <x:c r="E23" s="12"/>
+      <x:c r="G23" s="20"/>
+      <x:c r="H23" s="20"/>
+      <x:c r="I23" s="20"/>
+      <x:c r="J23" s="20"/>
+      <x:c r="K23" s="20"/>
+      <x:c r="L23" s="23"/>
+      <x:c r="M23" s="22"/>
+    </x:row>
+    <x:row r="24" spans="1:13">
+      <x:c r="A24" s="12"/>
+      <x:c r="B24" s="12"/>
+      <x:c r="C24" s="14"/>
+      <x:c r="D24" s="12"/>
+      <x:c r="E24" s="12"/>
+      <x:c r="G24" s="20"/>
+      <x:c r="H24" s="20"/>
+      <x:c r="I24" s="20"/>
+      <x:c r="J24" s="20"/>
+      <x:c r="K24" s="20"/>
+      <x:c r="L24" s="23"/>
+      <x:c r="M24" s="22"/>
+    </x:row>
+    <x:row r="25" spans="1:13">
+      <x:c r="A25" s="12"/>
+      <x:c r="B25" s="12"/>
+      <x:c r="C25" s="14"/>
+      <x:c r="D25" s="12"/>
+      <x:c r="E25" s="12"/>
+      <x:c r="G25" s="20"/>
+      <x:c r="H25" s="20"/>
+      <x:c r="I25" s="20"/>
+      <x:c r="J25" s="20"/>
+      <x:c r="K25" s="20"/>
+      <x:c r="L25" s="23"/>
+      <x:c r="M25" s="22"/>
+    </x:row>
+    <x:row r="26" spans="1:13">
+      <x:c r="A26" s="12"/>
+      <x:c r="B26" s="12"/>
+      <x:c r="C26" s="14"/>
+      <x:c r="D26" s="12"/>
+      <x:c r="E26" s="12"/>
+      <x:c r="G26" s="20"/>
+      <x:c r="H26" s="20"/>
+      <x:c r="I26" s="20"/>
+      <x:c r="J26" s="20"/>
+      <x:c r="K26" s="20"/>
+      <x:c r="L26" s="23"/>
+      <x:c r="M26" s="22"/>
+    </x:row>
+    <x:row r="27" spans="1:13">
+      <x:c r="A27" s="13"/>
+      <x:c r="B27" s="12"/>
+      <x:c r="C27" s="14"/>
+      <x:c r="D27" s="12"/>
+      <x:c r="E27" s="12"/>
+      <x:c r="G27" s="20"/>
+      <x:c r="H27" s="20"/>
+      <x:c r="I27" s="20"/>
+      <x:c r="J27" s="20"/>
+      <x:c r="K27" s="20"/>
+      <x:c r="L27" s="23"/>
+      <x:c r="M27" s="22"/>
+    </x:row>
+    <x:row r="28" spans="2:2">
+      <x:c r="B28" s="12"/>
+    </x:row>
+    <x:row r="29" spans="2:2">
+      <x:c r="B29" s="12"/>
+    </x:row>
+    <x:row r="30" spans="2:2">
+      <x:c r="B30" s="12"/>
+    </x:row>
+    <x:row r="31" spans="2:2">
+      <x:c r="B31" s="12"/>
+    </x:row>
+    <x:row r="32" spans="2:2">
+      <x:c r="B32" s="12"/>
+    </x:row>
+    <x:row r="33" spans="2:2">
+      <x:c r="B33" s="12"/>
+    </x:row>
+    <x:row r="34" spans="2:2">
+      <x:c r="B34" s="12"/>
+    </x:row>
+    <x:row r="35" spans="2:2">
+      <x:c r="B35" s="12"/>
+    </x:row>
+    <x:row r="36" spans="2:2">
+      <x:c r="B36" s="12"/>
+    </x:row>
+    <x:row r="1048576" spans="1:13" ht="13.949999999999999">
+      <x:c r="A1048576" s="4"/>
+      <x:c r="B1048576" s="2"/>
+      <x:c r="C1048576" s="2"/>
+      <x:c r="D1048576" s="2"/>
+      <x:c r="E1048576" s="2"/>
+      <x:c r="F1048576" s="2"/>
+      <x:c r="G1048576" s="2"/>
+      <x:c r="H1048576" s="2"/>
+      <x:c r="I1048576" s="2"/>
+      <x:c r="J1048576" s="2"/>
+      <x:c r="K1048576" s="2"/>
+      <x:c r="L1048576" s="18"/>
+      <x:c r="M1048576" s="6"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1070,7 +1640,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1086,7 +1656,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/addmaterial.xlsx
+++ b/addmaterial.xlsx
@@ -21,85 +21,163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+  <x:si>
+    <x:t>벨로또</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크 케이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1MAT003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리드타임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>센터 스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재유형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최소공급수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>킥스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바텀브라켓 셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공급업체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(앞)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자재코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1SEM001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATB1SEM002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력테스트2번파일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 RD-M4120 10단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 SM-BB52 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 슬릭 스테인레스 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 E25 옥타링크 바텀브라켓</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스람 x4 (7,8,9단)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시마노 FD-M4000 9단</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COS 스테인레스 블랙 데프콘코팅 브레이크속선</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벨로또 세띠아 디펜더 (29x1.75)</x:t>
+  </x:si>
   <x:si>
     <x:t>시마노 10단 디오레티아그라 스프라켓</x:t>
   </x:si>
   <x:si>
-    <x:t>벨로또 세띠아 디펜더 (29x1.75)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재코드</x:t>
+    <x:t>스람 x5 10단 뒷변속기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뒷바퀴A</x:t>
   </x:si>
   <x:si>
     <x:t>앞바퀴A</x:t>
   </x:si>
   <x:si>
-    <x:t>뒷바퀴A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>리드타임</x:t>
-  </x:si>
-  <x:si>
     <x:t>전기자전거A</x:t>
   </x:si>
   <x:si>
-    <x:t>공급업체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최소공급수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자재유형</x:t>
-  </x:si>
-  <x:si>
     <x:t>자재명</x:t>
   </x:si>
   <x:si>
+    <x:t>상품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부품</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기자전거B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변속기(뒤)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무게</x:t>
+  </x:si>
+  <x:si>
     <x:t>단가</x:t>
   </x:si>
   <x:si>
+    <x:t>세로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>높이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스탠드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조립품</x:t>
+  </x:si>
+  <x:si>
     <x:t>시마노</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벨로또</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조립품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세로</x:t>
-  </x:si>
-  <x:si>
-    <x:t>높이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부품</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1SEM002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MATB1SEM001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력테스트2번파일</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="8">
+  <x:fonts count="10">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -141,6 +219,16 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -156,7 +244,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="6">
     <x:border>
       <x:left>
         <x:color rgb="ff000000"/>
@@ -171,13 +259,86 @@
         <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -190,9 +351,40 @@
     <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="표준 2" xfId="1"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -208,8 +400,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ffd8e4f3"/>
-              <x:bgColor rgb="ffd8e4f3"/>
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -241,8 +433,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ffd8e4f3"/>
-              <x:bgColor rgb="ffd8e4f3"/>
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -272,8 +464,8 @@
     <x:dxf>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="ffb2c9e6"/>
-          <x:bgColor rgb="ffb2c9e6"/>
+          <x:fgColor rgb="ffaebfea"/>
+          <x:bgColor rgb="ffaebfea"/>
         </x:patternFill>
       </x:fill>
     </x:dxf>
@@ -291,8 +483,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
         </x:dxf>
@@ -305,8 +497,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
         </x:dxf>
@@ -326,8 +518,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -345,8 +537,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -371,8 +563,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -390,8 +582,8 @@
           </x:font>
           <x:fill>
             <x:patternFill patternType="solid">
-              <x:fgColor rgb="ff315f97"/>
-              <x:bgColor rgb="ff315f97"/>
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
             </x:patternFill>
           </x:fill>
           <x:border>
@@ -421,10 +613,10 @@
               <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:top>
             <x:bottom style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
               <x:color auto="1"/>
@@ -448,10 +640,10 @@
               <x:color auto="1"/>
             </x:right>
             <x:top style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:top>
             <x:bottom style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:bottom>
             <x:vertical>
               <x:color auto="1"/>
@@ -466,24 +658,24 @@
     <x:dxf>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="ff8393b2"/>
-          <x:bgColor rgb="ff8393b2"/>
+          <x:fgColor rgb="ff94a5df"/>
+          <x:bgColor rgb="ff94a5df"/>
         </x:patternFill>
       </x:fill>
       <x:border>
         <x:top style="thin">
-          <x:color rgb="ff315f97"/>
+          <x:color rgb="ff6182d6"/>
         </x:top>
         <x:bottom style="thin">
-          <x:color rgb="ff315f97"/>
+          <x:color rgb="ff6182d6"/>
         </x:bottom>
       </x:border>
     </x:dxf>
     <x:dxf>
       <x:fill>
         <x:patternFill patternType="solid">
-          <x:fgColor rgb="ff315f97"/>
-          <x:bgColor rgb="ff315f97"/>
+          <x:fgColor rgb="ff6182d6"/>
+          <x:bgColor rgb="ff6182d6"/>
         </x:patternFill>
       </x:fill>
     </x:dxf>
@@ -521,7 +713,7 @@
           </x:font>
           <x:border>
             <x:top style="thin">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:top>
           </x:border>
         </x:dxf>
@@ -533,7 +725,7 @@
           </x:font>
           <x:border>
             <x:top style="thin">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:top>
           </x:border>
         </x:dxf>
@@ -552,7 +744,7 @@
           </x:font>
           <x:border>
             <x:bottom style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:bottom>
           </x:border>
         </x:dxf>
@@ -564,7 +756,7 @@
           </x:font>
           <x:border>
             <x:bottom style="medium">
-              <x:color rgb="ff315f97"/>
+              <x:color rgb="ff6182d6"/>
             </x:bottom>
           </x:border>
         </x:dxf>
@@ -852,10 +1044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:M4"/>
+  <x:dimension ref="A1:M14"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B6" activeCellId="0" sqref="B6:B6"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A5" activeCellId="0" sqref="A5:M14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
@@ -871,63 +1063,63 @@
   <x:sheetData>
     <x:row r="1" spans="1:13">
       <x:c r="A1" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
+      <x:c r="D1" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E1" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I1" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J1" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="K1" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L1" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M1" s="3" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="L1" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="M1" s="3" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13">
       <x:c r="A2" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E2" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="2">
         <x:v>3</x:v>
@@ -953,22 +1145,22 @@
     </x:row>
     <x:row r="3" spans="1:13">
       <x:c r="A3" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G3" s="2">
         <x:v>3</x:v>
@@ -997,19 +1189,19 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G4" s="2">
         <x:v>3</x:v>
@@ -1033,8 +1225,418 @@
         <x:v>100</x:v>
       </x:c>
     </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D5" s="6" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E5" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F5" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G5" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H5" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I5" s="8">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J5" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K5" s="8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L5" s="9">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="M5" s="10">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="11" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B6" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D6" s="12" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E6" s="11" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F6" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G6" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H6" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I6" s="8">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J6" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K6" s="8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L6" s="9">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="M6" s="10">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="11" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B7" s="11" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D7" s="12" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E7" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F7" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G7" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H7" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I7" s="8">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J7" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K7" s="8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L7" s="9">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="M7" s="10">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="11" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B8" s="11" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C8" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D8" s="12" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E8" s="11" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F8" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G8" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H8" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I8" s="8">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J8" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K8" s="8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L8" s="9">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="M8" s="10">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="11" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B9" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C9" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D9" s="12" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E9" s="11" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F9" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G9" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H9" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I9" s="8">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J9" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K9" s="8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L9" s="9">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="M9" s="10">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="11" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B10" s="11" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C10" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D10" s="12" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E10" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F10" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G10" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H10" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I10" s="8">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J10" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K10" s="8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L10" s="9">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="M10" s="10">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="11" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B11" s="11" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C11" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D11" s="12" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E11" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F11" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G11" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H11" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I11" s="8">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J11" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K11" s="8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L11" s="9">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="M11" s="10">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="11" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B12" s="11" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D12" s="12" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E12" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F12" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G12" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H12" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I12" s="8">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J12" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K12" s="8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L12" s="9">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="M12" s="10">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="11" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B13" s="11" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C13" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D13" s="12" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E13" s="11" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F13" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G13" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H13" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I13" s="8">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J13" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K13" s="8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L13" s="9">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="M13" s="10">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="13" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B14" s="11" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C14" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D14" s="12" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E14" s="11" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F14" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G14" s="8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H14" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I14" s="8">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J14" s="8">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="K14" s="8">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L14" s="9">
+        <x:v>25000</x:v>
+      </x:c>
+      <x:c r="M14" s="10">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1050,7 +1652,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1066,7 +1668,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.55000000000000071054"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>